--- a/openpy_dsse/examples/4Node/Results/Results_DSSE_4Node.xlsx
+++ b/openpy_dsse/examples/4Node/Results/Results_DSSE_4Node.xlsx
@@ -475,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.001785380451269</v>
+        <v>1.001785391990189</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.004032936302142324</v>
+        <v>-0.004033102053282589</v>
       </c>
       <c r="E2" t="n">
         <v>1.0019</v>
@@ -497,10 +497,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9837620287105781</v>
+        <v>0.9837629910137418</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07066528812717579</v>
+        <v>-0.07071050416626626</v>
       </c>
       <c r="E3" t="n">
         <v>0.9838</v>
@@ -519,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9722830215993141</v>
+        <v>0.9722843332634753</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.07455828407126243</v>
+        <v>-0.07462219291091984</v>
       </c>
       <c r="E4" t="n">
         <v>0.973</v>
@@ -541,16 +541,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9626167297523294</v>
+        <v>0.9626182029577175</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1126886671229815</v>
+        <v>-0.1127598826909283</v>
       </c>
       <c r="E5" t="n">
         <v>0.9636</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1038</v>
+        <v>0.1039</v>
       </c>
     </row>
   </sheetData>
